--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58965AD5-A29F-4F02-BA64-A22F8131A413}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E468E2-C03B-4BA8-8E09-CAA73C5DABFC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="115">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>Kidnap</t>
+  </si>
+  <si>
+    <t>1fJaoB5OP7KsCLuX-PakgsNM7WaGcO_Y52pf34lu6KPE</t>
   </si>
 </sst>
 </file>
@@ -765,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +909,7 @@
         <v>27</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>73</v>
@@ -965,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>73</v>
@@ -1024,7 +1027,7 @@
         <v>102</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>73</v>
@@ -1083,7 +1086,7 @@
         <v>103</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>73</v>
@@ -1148,7 +1151,7 @@
         <v>100</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>73</v>
@@ -1604,7 +1607,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,7 +1747,7 @@
         <v>27</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>71</v>
@@ -1803,7 +1806,7 @@
         <v>27</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>71</v>
@@ -1862,7 +1865,7 @@
         <v>102</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>71</v>
@@ -1921,7 +1924,7 @@
         <v>103</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>71</v>
@@ -1986,7 +1989,7 @@
         <v>100</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>71</v>
@@ -2441,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2590,7 +2593,7 @@
         <v>27</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>32</v>
@@ -2655,7 +2658,7 @@
         <v>27</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>32</v>
@@ -2720,7 +2723,7 @@
         <v>102</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>32</v>
@@ -2785,7 +2788,7 @@
         <v>103</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>32</v>
@@ -2850,7 +2853,7 @@
         <v>100</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>32</v>
